--- a/cardapio.xlsx
+++ b/cardapio.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="lanches" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="porções" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="bebidas" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,15 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t xml:space="preserve">CÓDIGO</t>
   </si>
   <si>
-    <t xml:space="preserve">LANCHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGREDIENTES</t>
+    <t xml:space="preserve">ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO</t>
   </si>
   <si>
     <t xml:space="preserve">VALOR</t>
@@ -92,6 +94,260 @@
   </si>
   <si>
     <t xml:space="preserve">Pão de hamburguer, hamburguer, filé de frango, ovo, calabresa, bacon, queijo, presunto, tomate, alface, ervilha, milho e batata-palha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritas Pequena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Pequena de Fritas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritas Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Média de Fritas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritas Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Grande de Fritas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritas Especial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Grande de Fritas com Cheddar e Bacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aipim Médio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Média de Aipim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aipim Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Grande de Aipim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polenta Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Média de Polenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polenta Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Grande de Polenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calabresa Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Média de Calabresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calabresa Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porção Grande de Calabresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água sem gás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água Mineral sem gás garrafa 500ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água com gás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água Mineral com gás garrafa 500ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Pêssego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Pêssego lata 350ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola lata 350ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaraná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaraná lata 350ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Laranja</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Laranja </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lata 350ml</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lata 350ml</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola garrafa 600ml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Guaraná </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> garrafa 600ml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Laranja </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> garrafa 600ml</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> garrafa 600ml</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola garrafa 2 litros</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Guaraná</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> garrafa 2 litros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Laranja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> garrafa 2 litros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> garrafa 2 litros</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -102,11 +358,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -122,6 +379,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,11 +456,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -216,7 +478,7 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -369,4 +631,363 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/cardapio.xlsx
+++ b/cardapio.xlsx
@@ -189,165 +189,37 @@
     <t xml:space="preserve">Fanta Laranja</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Laranja </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lata 350ml</t>
-    </r>
+    <t xml:space="preserve">Fanta Laranja  lata 350ml</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sprite </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lata 350ml</t>
-    </r>
+    <t xml:space="preserve">Sprite  lata 350ml</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola garrafa 600ml</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Guaraná </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> garrafa 600ml</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Laranja </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> garrafa 600ml</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sprite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> garrafa 600ml</t>
-    </r>
+    <t xml:space="preserve">Guaraná  garrafa 600ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Laranja  garrafa 600ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite garrafa 600ml</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola garrafa 2 litros</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Guaraná</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> garrafa 2 litros</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Laranja</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> garrafa 2 litros</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sprite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> garrafa 2 litros</t>
-    </r>
+    <t xml:space="preserve">Guaraná garrafa 2 litros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Laranja garrafa 2 litros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite garrafa 2 litros</t>
   </si>
 </sst>
 </file>
@@ -358,7 +230,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -379,11 +251,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,10 +324,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -641,10 +508,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.78"/>
@@ -665,6 +532,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
@@ -676,6 +546,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>26</v>
       </c>
@@ -687,6 +560,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>28</v>
       </c>
@@ -698,6 +574,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>30</v>
       </c>
@@ -709,6 +588,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>32</v>
       </c>
@@ -720,6 +602,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>34</v>
       </c>
@@ -731,6 +616,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="B8" s="0" t="s">
         <v>36</v>
       </c>
@@ -742,6 +630,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="B9" s="0" t="s">
         <v>38</v>
       </c>
@@ -753,6 +644,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="B10" s="0" t="s">
         <v>40</v>
       </c>
@@ -764,6 +658,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="B11" s="0" t="s">
         <v>42</v>
       </c>
@@ -793,10 +690,10 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.58"/>
@@ -817,6 +714,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>44</v>
       </c>
@@ -828,6 +728,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>46</v>
       </c>
@@ -839,6 +742,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="B4" s="0" t="s">
         <v>48</v>
       </c>
@@ -850,6 +756,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="B5" s="0" t="s">
         <v>50</v>
       </c>
@@ -861,6 +770,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>52</v>
       </c>
@@ -872,6 +784,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>54</v>
       </c>
@@ -883,6 +798,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>27</v>
+      </c>
       <c r="B8" s="0" t="s">
         <v>56</v>
       </c>
@@ -894,6 +812,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>28</v>
+      </c>
       <c r="B9" s="0" t="s">
         <v>50</v>
       </c>
@@ -905,6 +826,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="B10" s="0" t="s">
         <v>52</v>
       </c>
@@ -916,6 +840,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>30</v>
+      </c>
       <c r="B11" s="0" t="s">
         <v>54</v>
       </c>
@@ -927,6 +854,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>31</v>
+      </c>
       <c r="B12" s="0" t="s">
         <v>56</v>
       </c>
@@ -938,6 +868,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>32</v>
+      </c>
       <c r="B13" s="0" t="s">
         <v>50</v>
       </c>
@@ -949,6 +882,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>33</v>
+      </c>
       <c r="B14" s="0" t="s">
         <v>52</v>
       </c>
@@ -960,6 +896,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>34</v>
+      </c>
       <c r="B15" s="0" t="s">
         <v>54</v>
       </c>
@@ -971,6 +910,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>35</v>
+      </c>
       <c r="B16" s="0" t="s">
         <v>56</v>
       </c>
